--- a/tools/feilong-office-excel/src/test/resources/loxia/excel/Java培训报名.xlsx
+++ b/tools/feilong-office-excel/src/test/resources/loxia/excel/Java培训报名.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="351">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1216,12 +1216,171 @@
     <t>签到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2014年9月5日(星期一) 下午12:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李俊峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望可以在讲解过程中可以使更多的童鞋参与互动，有时提问后会冷场.如果能讲解的更深入就可好了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议：能够结合项目中的异常处理，可以了解.学习怎么处理异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.培训讲到了以前很多自己忽略的细节，以后开发多多注意&lt;br/&gt; 2.金总讲的很好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴凌云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还可以深入点，可以讲讲我们项目中用到的知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金总太屌了，太专业了，下次还来。通过这次了解到了更多对于异常处理的思想，对于今后工作中非常有帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT有个错别字，我看到了，巩固加深了一些知识，课程听下来还是有收货的 期待听到安全性能相关的课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞一个，建议更详细点，对异常的常用和处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对JDK1.7 有了更多的认识，对是否应该使用免检异常有疑惑，是否可以结合实际项目教授下异常体系的建立与设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展了JDK1.7的异常体系结构知识。建议针对常见易犯错/不规范编码 新增典型案例 以举一反三 提高课堂效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多一些真实的场景！总体不错，赞一个！啥时候讲一讲真实的异常code定义设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get 学习了&lt;br&gt;建议！PPT风格不习惯 飘来飘去的看着不舒服&lt;br&gt;最好能现场实践下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容丰富，讲解思路清晰，异常的作用 体系以及使用情况都有非常明确讲解。能够让我们在代码中更好的使用和处理异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runtimeexception和exception 可以用图表标示出使用场景和不同，方便记笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程讲解整体很流畅。但是感觉有些讲的有点不详细（可能由于时间问题）， 例如：异常整体详细的思想，觉得有点不到位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋아요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,Test phase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를보고싶어서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;br&gt;希望增加Test Phase（单元测试，集成测试等阶段）培训内容</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本节课程解决了很多以前不熟悉的问题，点赞。觉得可以提高的地方是异常处理部分，没有讲清BussnessException以及其他Runtime异常的具体使用场景，能否给出一个异常使用的标准或是建议？&lt;br&gt;课间建议给个上厕所的时间，2小时一节太长了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过讲师的讲解，认识到自身知识不足，基础不扎实。&lt;br/&gt;希望多讲一些接地气的东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.讲课思路清晰&lt;br/&gt;2.涉及源码信息较多，接地气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 仔细思考之后对于本节内容是偏向基础。感觉是学校中的内容。个人感觉应更深入一些&lt;br&gt; ②希望对于这个基础类的讲解更偏向于源码.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲的详细，对自己有些模糊的概念清晰了，对自己不好的try(代码全写里面)习惯得到了纠正. 好.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对于本次培训的异常相关的常见类可以再深入讲解一下. &lt;br&gt;2.作图不错，可以介绍一下作图软件&lt;br&gt;3.讲下本次开始排除的内容，可以在下课前引导一下.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例子举得少，有些地方觉得应该多举例论证.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了和了解了JDK1.7的新特性.&lt;br&gt;和异常的一些扩展.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对异常有了一定的了解，希望多开这样的课.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICE&lt;br&gt;内容组织的很好，也有一些使用案例。互动的也多，希望以后多多组织类似的培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1303,8 +1462,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BatangChe"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1314,6 +1480,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,7 +1502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1382,11 +1554,1352 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="258">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -1702,13 +3215,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="D57" sqref="D57:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2654,6 +4167,28 @@
         <v>26</v>
       </c>
     </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2667,13 +4202,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW71"/>
+  <dimension ref="A1:AW76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H69" sqref="H69"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2683,7 +4218,7 @@
     <col min="3" max="3" width="9.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="4" customWidth="1"/>
     <col min="7" max="7" width="8.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.875" style="2" customWidth="1"/>
@@ -2698,7 +4233,7 @@
     <col min="18" max="18" width="8.625" style="2" customWidth="1"/>
     <col min="19" max="19" width="6.125" style="2" customWidth="1"/>
     <col min="20" max="20" width="7.75" style="2" customWidth="1"/>
-    <col min="21" max="21" width="11.25" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10.875" style="2" customWidth="1"/>
     <col min="22" max="22" width="64.625" style="4" customWidth="1"/>
     <col min="23" max="23" width="36.25" style="4" customWidth="1"/>
     <col min="24" max="49" width="9" style="4"/>
@@ -4535,9 +6070,6 @@
       <c r="G30" s="2">
         <v>0</v>
       </c>
-      <c r="U30" s="2" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
@@ -4555,9 +6087,6 @@
       <c r="G31" s="2">
         <v>0</v>
       </c>
-      <c r="U31" s="2" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
@@ -4572,11 +6101,8 @@
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U32" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>36</v>
       </c>
@@ -4589,11 +6115,8 @@
       <c r="D33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U33" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>155</v>
       </c>
@@ -4606,11 +6129,8 @@
       <c r="D34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U34" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>153</v>
       </c>
@@ -4623,11 +6143,8 @@
       <c r="D35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U35" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>174</v>
       </c>
@@ -4640,11 +6157,8 @@
       <c r="D36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U36" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>193</v>
       </c>
@@ -4657,11 +6171,8 @@
       <c r="D37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U37" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>15</v>
       </c>
@@ -4674,11 +6185,8 @@
       <c r="D38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>25</v>
       </c>
@@ -4693,11 +6201,8 @@
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
-      <c r="U39" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>70</v>
       </c>
@@ -4710,11 +6215,8 @@
       <c r="D40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U40" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>49</v>
       </c>
@@ -4727,11 +6229,8 @@
       <c r="D41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U41" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>38</v>
       </c>
@@ -4744,11 +6243,8 @@
       <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U42" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>179</v>
       </c>
@@ -4761,11 +6257,8 @@
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>68</v>
       </c>
@@ -4781,11 +6274,8 @@
       <c r="E44" s="2">
         <v>1</v>
       </c>
-      <c r="U44" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>79</v>
       </c>
@@ -4801,11 +6291,8 @@
       <c r="E45" s="2">
         <v>1</v>
       </c>
-      <c r="U45" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>64</v>
       </c>
@@ -4821,11 +6308,8 @@
       <c r="E46" s="2">
         <v>1</v>
       </c>
-      <c r="U46" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>41</v>
       </c>
@@ -4841,11 +6325,8 @@
       <c r="E47" s="2">
         <v>1</v>
       </c>
-      <c r="U47" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>28</v>
       </c>
@@ -4861,11 +6342,8 @@
       <c r="E48" s="2">
         <v>1</v>
       </c>
-      <c r="U48" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>13</v>
       </c>
@@ -4881,11 +6359,8 @@
       <c r="E49" s="2">
         <v>1</v>
       </c>
-      <c r="U49" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>21</v>
       </c>
@@ -4898,346 +6373,1900 @@
       <c r="D50" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U50" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="21">
         <v>41887</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>5</v>
+      </c>
+      <c r="I51" s="2">
+        <v>5</v>
+      </c>
+      <c r="J51" s="2">
+        <v>5</v>
+      </c>
+      <c r="K51" s="2">
+        <v>5</v>
+      </c>
+      <c r="L51" s="2">
+        <v>5</v>
+      </c>
+      <c r="M51" s="2">
+        <v>5</v>
+      </c>
+      <c r="N51" s="2">
+        <v>4</v>
+      </c>
+      <c r="O51" s="2">
+        <v>4</v>
+      </c>
+      <c r="P51" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>5</v>
+      </c>
+      <c r="R51" s="2">
+        <v>4</v>
+      </c>
+      <c r="S51" s="2">
+        <v>3</v>
+      </c>
+      <c r="T51" s="2">
+        <v>3</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="21">
         <v>41887</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>5</v>
+      </c>
+      <c r="I52" s="2">
+        <v>5</v>
+      </c>
+      <c r="J52" s="2">
+        <v>5</v>
+      </c>
+      <c r="K52" s="2">
+        <v>4</v>
+      </c>
+      <c r="L52" s="2">
+        <v>5</v>
+      </c>
+      <c r="M52" s="2">
+        <v>5</v>
+      </c>
+      <c r="N52" s="2">
+        <v>5</v>
+      </c>
+      <c r="O52" s="2">
+        <v>5</v>
+      </c>
+      <c r="P52" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>5</v>
+      </c>
+      <c r="R52" s="2">
+        <v>4</v>
+      </c>
+      <c r="S52" s="2">
+        <v>3</v>
+      </c>
+      <c r="T52" s="2">
+        <v>3</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>247</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="21">
         <v>41887</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
+        <v>5</v>
+      </c>
+      <c r="I53" s="2">
+        <v>5</v>
+      </c>
+      <c r="J53" s="2">
+        <v>5</v>
+      </c>
+      <c r="K53" s="2">
+        <v>5</v>
+      </c>
+      <c r="L53" s="2">
+        <v>5</v>
+      </c>
+      <c r="M53" s="2">
+        <v>5</v>
+      </c>
+      <c r="N53" s="2">
+        <v>4</v>
+      </c>
+      <c r="O53" s="2">
+        <v>5</v>
+      </c>
+      <c r="P53" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>5</v>
+      </c>
+      <c r="R53" s="2">
+        <v>4</v>
+      </c>
+      <c r="S53" s="2">
+        <v>3</v>
+      </c>
+      <c r="T53" s="2">
+        <v>3</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V53" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="21">
         <v>41887</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2">
+        <v>5</v>
+      </c>
+      <c r="I54" s="2">
+        <v>5</v>
+      </c>
+      <c r="J54" s="2">
+        <v>5</v>
+      </c>
+      <c r="K54" s="2">
+        <v>5</v>
+      </c>
+      <c r="L54" s="2">
+        <v>5</v>
+      </c>
+      <c r="M54" s="2">
+        <v>5</v>
+      </c>
+      <c r="N54" s="2">
+        <v>5</v>
+      </c>
+      <c r="O54" s="2">
+        <v>5</v>
+      </c>
+      <c r="P54" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>5</v>
+      </c>
+      <c r="R54" s="2">
+        <v>4</v>
+      </c>
+      <c r="S54" s="2">
+        <v>3</v>
+      </c>
+      <c r="T54" s="2">
+        <v>3</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>155</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="21">
         <v>41887</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G55" s="2">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2">
+        <v>5</v>
+      </c>
+      <c r="I55" s="2">
+        <v>5</v>
+      </c>
+      <c r="J55" s="2">
+        <v>5</v>
+      </c>
+      <c r="K55" s="2">
+        <v>5</v>
+      </c>
+      <c r="L55" s="2">
+        <v>5</v>
+      </c>
+      <c r="M55" s="2">
+        <v>5</v>
+      </c>
+      <c r="N55" s="2">
+        <v>4</v>
+      </c>
+      <c r="O55" s="2">
+        <v>5</v>
+      </c>
+      <c r="P55" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>5</v>
+      </c>
+      <c r="R55" s="2">
+        <v>4</v>
+      </c>
+      <c r="S55" s="2">
+        <v>3</v>
+      </c>
+      <c r="T55" s="2">
+        <v>3</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>165</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="21">
         <v>41887</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2">
+        <v>5</v>
+      </c>
+      <c r="I56" s="2">
+        <v>5</v>
+      </c>
+      <c r="J56" s="2">
+        <v>5</v>
+      </c>
+      <c r="K56" s="2">
+        <v>5</v>
+      </c>
+      <c r="L56" s="2">
+        <v>5</v>
+      </c>
+      <c r="M56" s="2">
+        <v>5</v>
+      </c>
+      <c r="N56" s="2">
+        <v>5</v>
+      </c>
+      <c r="O56" s="2">
+        <v>5</v>
+      </c>
+      <c r="P56" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>5</v>
+      </c>
+      <c r="R56" s="2">
+        <v>4</v>
+      </c>
+      <c r="S56" s="2">
+        <v>3</v>
+      </c>
+      <c r="T56" s="2">
+        <v>3</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="21">
         <v>41887</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="22" t="s">
         <v>246</v>
       </c>
       <c r="G57" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>249</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="21">
         <v>41887</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="22" t="s">
         <v>246</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2">
+        <v>5</v>
+      </c>
+      <c r="I58" s="2">
+        <v>5</v>
+      </c>
+      <c r="J58" s="2">
+        <v>5</v>
+      </c>
+      <c r="K58" s="2">
+        <v>5</v>
+      </c>
+      <c r="L58" s="2">
+        <v>5</v>
+      </c>
+      <c r="M58" s="2">
+        <v>5</v>
+      </c>
+      <c r="N58" s="2">
+        <v>4</v>
+      </c>
+      <c r="O58" s="2">
+        <v>5</v>
+      </c>
+      <c r="P58" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>5</v>
+      </c>
+      <c r="R58" s="2">
+        <v>4</v>
+      </c>
+      <c r="S58" s="2">
+        <v>3</v>
+      </c>
+      <c r="T58" s="2">
+        <v>3</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>252</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="21">
         <v>41887</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2">
+        <v>5</v>
+      </c>
+      <c r="I59" s="2">
+        <v>4</v>
+      </c>
+      <c r="J59" s="2">
+        <v>5</v>
+      </c>
+      <c r="K59" s="2">
+        <v>5</v>
+      </c>
+      <c r="L59" s="2">
+        <v>5</v>
+      </c>
+      <c r="M59" s="2">
+        <v>5</v>
+      </c>
+      <c r="N59" s="2">
+        <v>4</v>
+      </c>
+      <c r="O59" s="2">
+        <v>5</v>
+      </c>
+      <c r="P59" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>5</v>
+      </c>
+      <c r="R59" s="2">
+        <v>4</v>
+      </c>
+      <c r="S59" s="2">
+        <v>3</v>
+      </c>
+      <c r="T59" s="2">
+        <v>3</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V59" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="21">
         <v>41887</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>5</v>
+      </c>
+      <c r="I60" s="2">
+        <v>5</v>
+      </c>
+      <c r="J60" s="2">
+        <v>5</v>
+      </c>
+      <c r="K60" s="2">
+        <v>5</v>
+      </c>
+      <c r="L60" s="2">
+        <v>5</v>
+      </c>
+      <c r="M60" s="2">
+        <v>5</v>
+      </c>
+      <c r="N60" s="2">
+        <v>5</v>
+      </c>
+      <c r="O60" s="2">
+        <v>5</v>
+      </c>
+      <c r="P60" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>5</v>
+      </c>
+      <c r="R60" s="2">
+        <v>4</v>
+      </c>
+      <c r="S60" s="2">
+        <v>3</v>
+      </c>
+      <c r="T60" s="2">
+        <v>3</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V60" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="21">
         <v>41887</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G61" s="2">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2">
+        <v>5</v>
+      </c>
+      <c r="I61" s="2">
+        <v>5</v>
+      </c>
+      <c r="J61" s="2">
+        <v>5</v>
+      </c>
+      <c r="K61" s="2">
+        <v>5</v>
+      </c>
+      <c r="L61" s="2">
+        <v>5</v>
+      </c>
+      <c r="M61" s="2">
+        <v>5</v>
+      </c>
+      <c r="N61" s="2">
+        <v>5</v>
+      </c>
+      <c r="O61" s="2">
+        <v>5</v>
+      </c>
+      <c r="P61" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>5</v>
+      </c>
+      <c r="R61" s="2">
+        <v>4</v>
+      </c>
+      <c r="S61" s="2">
+        <v>3</v>
+      </c>
+      <c r="T61" s="2">
+        <v>3</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="V61" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="21">
         <v>41887</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G62" s="2">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2">
+        <v>5</v>
+      </c>
+      <c r="I62" s="2">
+        <v>5</v>
+      </c>
+      <c r="J62" s="2">
+        <v>5</v>
+      </c>
+      <c r="K62" s="2">
+        <v>5</v>
+      </c>
+      <c r="L62" s="2">
+        <v>5</v>
+      </c>
+      <c r="M62" s="2">
+        <v>5</v>
+      </c>
+      <c r="N62" s="2">
+        <v>4</v>
+      </c>
+      <c r="O62" s="2">
+        <v>4</v>
+      </c>
+      <c r="P62" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>5</v>
+      </c>
+      <c r="R62" s="2">
+        <v>3</v>
+      </c>
+      <c r="S62" s="2">
+        <v>2</v>
+      </c>
+      <c r="T62" s="2">
+        <v>3</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V62" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="21">
         <v>41887</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G63" s="2">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2">
+        <v>5</v>
+      </c>
+      <c r="I63" s="2">
+        <v>5</v>
+      </c>
+      <c r="J63" s="2">
+        <v>5</v>
+      </c>
+      <c r="K63" s="2">
+        <v>5</v>
+      </c>
+      <c r="L63" s="2">
+        <v>5</v>
+      </c>
+      <c r="M63" s="2">
+        <v>5</v>
+      </c>
+      <c r="N63" s="2">
+        <v>5</v>
+      </c>
+      <c r="O63" s="2">
+        <v>5</v>
+      </c>
+      <c r="P63" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>5</v>
+      </c>
+      <c r="R63" s="2">
+        <v>4</v>
+      </c>
+      <c r="S63" s="2">
+        <v>3</v>
+      </c>
+      <c r="T63" s="2">
+        <v>3</v>
+      </c>
+      <c r="U63" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="V63" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>254</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="21">
         <v>41887</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <v>5</v>
+      </c>
+      <c r="I64" s="2">
+        <v>5</v>
+      </c>
+      <c r="J64" s="2">
+        <v>5</v>
+      </c>
+      <c r="K64" s="2">
+        <v>5</v>
+      </c>
+      <c r="L64" s="2">
+        <v>5</v>
+      </c>
+      <c r="M64" s="2">
+        <v>5</v>
+      </c>
+      <c r="N64" s="2">
+        <v>5</v>
+      </c>
+      <c r="O64" s="2">
+        <v>5</v>
+      </c>
+      <c r="P64" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>5</v>
+      </c>
+      <c r="R64" s="2">
+        <v>4</v>
+      </c>
+      <c r="S64" s="2">
+        <v>3</v>
+      </c>
+      <c r="T64" s="2">
+        <v>3</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="V64" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>261</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="21">
         <v>41887</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2">
+        <v>5</v>
+      </c>
+      <c r="I65" s="2">
+        <v>5</v>
+      </c>
+      <c r="J65" s="2">
+        <v>5</v>
+      </c>
+      <c r="K65" s="2">
+        <v>3</v>
+      </c>
+      <c r="L65" s="2">
+        <v>5</v>
+      </c>
+      <c r="M65" s="2">
+        <v>5</v>
+      </c>
+      <c r="N65" s="2">
+        <v>5</v>
+      </c>
+      <c r="O65" s="2">
+        <v>5</v>
+      </c>
+      <c r="P65" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>5</v>
+      </c>
+      <c r="R65" s="2">
+        <v>4</v>
+      </c>
+      <c r="S65" s="2">
+        <v>3</v>
+      </c>
+      <c r="T65" s="2">
+        <v>3</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="V65" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="21">
         <v>41887</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2">
+        <v>5</v>
+      </c>
+      <c r="I66" s="2">
+        <v>5</v>
+      </c>
+      <c r="J66" s="2">
+        <v>5</v>
+      </c>
+      <c r="K66" s="2">
+        <v>5</v>
+      </c>
+      <c r="L66" s="2">
+        <v>5</v>
+      </c>
+      <c r="M66" s="2">
+        <v>5</v>
+      </c>
+      <c r="N66" s="2">
+        <v>5</v>
+      </c>
+      <c r="O66" s="2">
+        <v>5</v>
+      </c>
+      <c r="P66" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>5</v>
+      </c>
+      <c r="R66" s="2">
+        <v>4</v>
+      </c>
+      <c r="S66" s="2">
+        <v>3</v>
+      </c>
+      <c r="T66" s="2">
+        <v>3</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V66" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>193</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="21">
         <v>41887</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2">
+        <v>5</v>
+      </c>
+      <c r="I67" s="2">
+        <v>5</v>
+      </c>
+      <c r="J67" s="2">
+        <v>5</v>
+      </c>
+      <c r="K67" s="2">
+        <v>5</v>
+      </c>
+      <c r="L67" s="2">
+        <v>5</v>
+      </c>
+      <c r="M67" s="2">
+        <v>5</v>
+      </c>
+      <c r="N67" s="2">
+        <v>4</v>
+      </c>
+      <c r="O67" s="2">
+        <v>4</v>
+      </c>
+      <c r="P67" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>5</v>
+      </c>
+      <c r="R67" s="2">
+        <v>4</v>
+      </c>
+      <c r="S67" s="2">
+        <v>3</v>
+      </c>
+      <c r="T67" s="2">
+        <v>3</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V67" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="21">
         <v>41887</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
+        <v>5</v>
+      </c>
+      <c r="I68" s="2">
+        <v>5</v>
+      </c>
+      <c r="J68" s="2">
+        <v>5</v>
+      </c>
+      <c r="K68" s="2">
+        <v>4</v>
+      </c>
+      <c r="L68" s="2">
+        <v>5</v>
+      </c>
+      <c r="M68" s="2">
+        <v>5</v>
+      </c>
+      <c r="N68" s="2">
+        <v>5</v>
+      </c>
+      <c r="O68" s="2">
+        <v>5</v>
+      </c>
+      <c r="P68" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>5</v>
+      </c>
+      <c r="R68" s="2">
+        <v>3</v>
+      </c>
+      <c r="S68" s="2">
+        <v>2</v>
+      </c>
+      <c r="T68" s="2">
+        <v>3</v>
+      </c>
+      <c r="U68" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V68" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="21">
         <v>41887</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G69" s="2">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2">
+        <v>5</v>
+      </c>
+      <c r="I69" s="2">
+        <v>5</v>
+      </c>
+      <c r="J69" s="2">
+        <v>5</v>
+      </c>
+      <c r="K69" s="2">
+        <v>5</v>
+      </c>
+      <c r="L69" s="2">
+        <v>5</v>
+      </c>
+      <c r="M69" s="2">
+        <v>5</v>
+      </c>
+      <c r="N69" s="2">
+        <v>5</v>
+      </c>
+      <c r="O69" s="2">
+        <v>5</v>
+      </c>
+      <c r="P69" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>5</v>
+      </c>
+      <c r="R69" s="2">
+        <v>4</v>
+      </c>
+      <c r="S69" s="2">
+        <v>3</v>
+      </c>
+      <c r="T69" s="2">
+        <v>3</v>
+      </c>
+      <c r="U69" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="V69" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="21">
         <v>41887</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2">
+        <v>5</v>
+      </c>
+      <c r="I70" s="2">
+        <v>5</v>
+      </c>
+      <c r="J70" s="2">
+        <v>5</v>
+      </c>
+      <c r="K70" s="2">
+        <v>5</v>
+      </c>
+      <c r="L70" s="2">
+        <v>5</v>
+      </c>
+      <c r="M70" s="2">
+        <v>5</v>
+      </c>
+      <c r="N70" s="2">
+        <v>5</v>
+      </c>
+      <c r="O70" s="2">
+        <v>5</v>
+      </c>
+      <c r="P70" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>5</v>
+      </c>
+      <c r="R70" s="2">
+        <v>4</v>
+      </c>
+      <c r="S70" s="2">
+        <v>3</v>
+      </c>
+      <c r="T70" s="2">
+        <v>3</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="V70" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>316</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="21">
         <v>41887</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="22" t="s">
         <v>246</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>5</v>
+      </c>
+      <c r="I71" s="2">
+        <v>5</v>
+      </c>
+      <c r="J71" s="2">
+        <v>5</v>
+      </c>
+      <c r="K71" s="2">
+        <v>5</v>
+      </c>
+      <c r="L71" s="2">
+        <v>5</v>
+      </c>
+      <c r="M71" s="2">
+        <v>5</v>
+      </c>
+      <c r="N71" s="2">
+        <v>5</v>
+      </c>
+      <c r="O71" s="2">
+        <v>5</v>
+      </c>
+      <c r="P71" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>5</v>
+      </c>
+      <c r="R71" s="2">
+        <v>4</v>
+      </c>
+      <c r="S71" s="2">
+        <v>3</v>
+      </c>
+      <c r="T71" s="2">
+        <v>3</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="V71" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C72" s="21">
+        <v>41887</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2">
+        <v>5</v>
+      </c>
+      <c r="I72" s="2">
+        <v>5</v>
+      </c>
+      <c r="J72" s="2">
+        <v>5</v>
+      </c>
+      <c r="K72" s="2">
+        <v>5</v>
+      </c>
+      <c r="L72" s="2">
+        <v>5</v>
+      </c>
+      <c r="M72" s="2">
+        <v>5</v>
+      </c>
+      <c r="N72" s="2">
+        <v>5</v>
+      </c>
+      <c r="O72" s="2">
+        <v>5</v>
+      </c>
+      <c r="P72" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>5</v>
+      </c>
+      <c r="R72" s="2">
+        <v>4</v>
+      </c>
+      <c r="S72" s="2">
+        <v>3</v>
+      </c>
+      <c r="T72" s="2">
+        <v>3</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V72" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C73" s="21">
+        <v>41887</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2">
+        <v>5</v>
+      </c>
+      <c r="I73" s="2">
+        <v>4</v>
+      </c>
+      <c r="J73" s="2">
+        <v>5</v>
+      </c>
+      <c r="K73" s="2">
+        <v>5</v>
+      </c>
+      <c r="L73" s="2">
+        <v>5</v>
+      </c>
+      <c r="M73" s="2">
+        <v>5</v>
+      </c>
+      <c r="N73" s="2">
+        <v>5</v>
+      </c>
+      <c r="O73" s="2">
+        <v>5</v>
+      </c>
+      <c r="P73" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>5</v>
+      </c>
+      <c r="R73" s="2">
+        <v>4</v>
+      </c>
+      <c r="S73" s="2">
+        <v>3</v>
+      </c>
+      <c r="T73" s="2">
+        <v>3</v>
+      </c>
+      <c r="U73" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V73" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C74" s="21">
+        <v>41887</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2">
+        <v>4</v>
+      </c>
+      <c r="I74" s="2">
+        <v>5</v>
+      </c>
+      <c r="J74" s="2">
+        <v>5</v>
+      </c>
+      <c r="K74" s="2">
+        <v>3</v>
+      </c>
+      <c r="L74" s="2">
+        <v>5</v>
+      </c>
+      <c r="M74" s="2">
+        <v>4</v>
+      </c>
+      <c r="N74" s="2">
+        <v>2</v>
+      </c>
+      <c r="O74" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>4</v>
+      </c>
+      <c r="R74" s="2">
+        <v>4</v>
+      </c>
+      <c r="S74" s="2">
+        <v>3</v>
+      </c>
+      <c r="T74" s="2">
+        <v>3</v>
+      </c>
+      <c r="U74" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V74" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C75" s="21">
+        <v>41887</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2">
+        <v>5</v>
+      </c>
+      <c r="I75" s="2">
+        <v>5</v>
+      </c>
+      <c r="J75" s="2">
+        <v>5</v>
+      </c>
+      <c r="K75" s="2">
+        <v>5</v>
+      </c>
+      <c r="L75" s="2">
+        <v>5</v>
+      </c>
+      <c r="M75" s="2">
+        <v>5</v>
+      </c>
+      <c r="N75" s="2">
+        <v>5</v>
+      </c>
+      <c r="O75" s="2">
+        <v>5</v>
+      </c>
+      <c r="P75" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>5</v>
+      </c>
+      <c r="R75" s="2">
+        <v>4</v>
+      </c>
+      <c r="S75" s="2">
+        <v>3</v>
+      </c>
+      <c r="T75" s="2">
+        <v>3</v>
+      </c>
+      <c r="U75" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V75" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C76" s="21">
+        <v>41887</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2">
+        <v>4</v>
+      </c>
+      <c r="I76" s="2">
+        <v>4</v>
+      </c>
+      <c r="J76" s="2">
+        <v>5</v>
+      </c>
+      <c r="K76" s="2">
+        <v>3</v>
+      </c>
+      <c r="L76" s="2">
+        <v>4</v>
+      </c>
+      <c r="M76" s="2">
+        <v>4</v>
+      </c>
+      <c r="N76" s="2">
+        <v>4</v>
+      </c>
+      <c r="O76" s="2">
+        <v>4</v>
+      </c>
+      <c r="P76" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>5</v>
+      </c>
+      <c r="R76" s="2">
+        <v>4</v>
+      </c>
+      <c r="S76" s="2">
+        <v>3</v>
+      </c>
+      <c r="T76" s="2">
+        <v>3</v>
+      </c>
+      <c r="U76" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="V76" s="4" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W65"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:Q29">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="85" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="86" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="87" operator="equal">
       <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58:Q58">
+    <cfRule type="cellIs" dxfId="169" priority="82" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="83" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="84" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66:Q66">
+    <cfRule type="cellIs" dxfId="166" priority="79" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="80" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="81" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56:Q56">
+    <cfRule type="cellIs" dxfId="163" priority="76" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="77" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="78" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61:Q61">
+    <cfRule type="cellIs" dxfId="160" priority="73" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="74" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="75" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:Q51">
+    <cfRule type="cellIs" dxfId="157" priority="70" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="71" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="72" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:Q52">
+    <cfRule type="cellIs" dxfId="154" priority="67" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="68" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="69" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:Q73">
+    <cfRule type="cellIs" dxfId="151" priority="64" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="65" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="66" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68:Q68">
+    <cfRule type="cellIs" dxfId="148" priority="61" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="62" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="63" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63:Q63">
+    <cfRule type="cellIs" dxfId="145" priority="58" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="59" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="60" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:Q54">
+    <cfRule type="cellIs" dxfId="142" priority="55" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="56" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="57" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67:Q67">
+    <cfRule type="cellIs" dxfId="139" priority="52" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="53" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="54" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69:Q69">
+    <cfRule type="cellIs" dxfId="136" priority="49" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="50" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="51" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65:Q65">
+    <cfRule type="cellIs" dxfId="133" priority="46" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="47" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="48" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60:Q60">
+    <cfRule type="cellIs" dxfId="130" priority="43" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="44" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="45" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64:Q64">
+    <cfRule type="cellIs" dxfId="127" priority="40" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="41" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="42" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:Q55">
+    <cfRule type="cellIs" dxfId="124" priority="37" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="38" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="39" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:Q53">
+    <cfRule type="cellIs" dxfId="121" priority="34" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="35" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="36" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70:Q70">
+    <cfRule type="cellIs" dxfId="118" priority="31" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="32" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="33" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76:Q76">
+    <cfRule type="cellIs" dxfId="115" priority="28" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="29" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="30" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71:Q71">
+    <cfRule type="cellIs" dxfId="112" priority="25" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="26" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="27" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62:Q62">
+    <cfRule type="cellIs" dxfId="109" priority="22" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="23" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="24" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:Q59">
+    <cfRule type="cellIs" dxfId="106" priority="19" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="20" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="21" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72:Q72">
+    <cfRule type="cellIs" dxfId="103" priority="16" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="17" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="18" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75:Q75">
+    <cfRule type="cellIs" dxfId="100" priority="13" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="14" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="15" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74:Q74">
+    <cfRule type="cellIs" dxfId="97" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="11" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="12" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="94" priority="7" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="8" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="9" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U76">
+    <cfRule type="cellIs" dxfId="91" priority="6" operator="equal">
+      <formula>"表扬"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="5" operator="equal">
+      <formula>"意见"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="4" operator="equal">
+      <formula>"批评"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
+      <formula>"无"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G76">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>评价类型!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U50</xm:sqref>
+          <xm:sqref>U2:U76</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>人员名单!$A$2:$A$55</xm:f>
           </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>人员名单!$A$2:$A$55</xm:f>
-          </x14:formula1>
-          <xm:sqref>A65:A68</xm:sqref>
+          <xm:sqref>A2 A65:A68</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
